--- a/复诊病人.xlsx
+++ b/复诊病人.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S198"/>
+  <dimension ref="A1:AA198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,46 @@
           <t>内镜诊断_息肉</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>病理诊断_炎_or_溃疡</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>病理诊断_结核</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>病理诊断_抗酸染色阴性</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>病理诊断_克罗恩_or_Crohn_or_克隆氏</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>病理诊断_淋巴滤泡</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>病理诊断_寄生虫</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>病理诊断_淀粉样变性</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>病理诊断_淋巴管扩展</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -527,6 +567,30 @@
       <c r="S2" t="n">
         <v>0</v>
       </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -596,6 +660,30 @@
       <c r="S3" t="n">
         <v>0</v>
       </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -661,6 +749,30 @@
       <c r="S4" t="n">
         <v>0</v>
       </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -726,6 +838,30 @@
       <c r="S5" t="n">
         <v>0</v>
       </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -791,6 +927,30 @@
       <c r="S6" t="n">
         <v>0</v>
       </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -860,6 +1020,30 @@
       <c r="S7" t="n">
         <v>0</v>
       </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -929,6 +1113,30 @@
       <c r="S8" t="n">
         <v>1</v>
       </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -998,6 +1206,30 @@
       <c r="S9" t="n">
         <v>0</v>
       </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1067,6 +1299,30 @@
       <c r="S10" t="n">
         <v>0</v>
       </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1134,6 +1390,30 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1197,6 +1477,30 @@
       <c r="S12" t="n">
         <v>0</v>
       </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1258,6 +1562,30 @@
       <c r="S13" t="n">
         <v>0</v>
       </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1319,6 +1647,30 @@
       <c r="S14" t="n">
         <v>0</v>
       </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1386,6 +1738,30 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1449,6 +1825,30 @@
       <c r="S16" t="n">
         <v>0</v>
       </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1518,6 +1918,30 @@
       <c r="S17" t="n">
         <v>1</v>
       </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1587,6 +2011,30 @@
       <c r="S18" t="n">
         <v>0</v>
       </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1656,6 +2104,30 @@
       <c r="S19" t="n">
         <v>0</v>
       </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1725,6 +2197,30 @@
       <c r="S20" t="n">
         <v>0</v>
       </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1790,6 +2286,30 @@
       <c r="S21" t="n">
         <v>0</v>
       </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1859,6 +2379,30 @@
       <c r="S22" t="n">
         <v>0</v>
       </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1928,6 +2472,30 @@
       <c r="S23" t="n">
         <v>0</v>
       </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1997,6 +2565,30 @@
       <c r="S24" t="n">
         <v>0</v>
       </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2066,6 +2658,30 @@
       <c r="S25" t="n">
         <v>0</v>
       </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2135,6 +2751,30 @@
       <c r="S26" t="n">
         <v>0</v>
       </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2202,6 +2842,30 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2265,6 +2929,30 @@
       <c r="S28" t="n">
         <v>0</v>
       </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2326,6 +3014,30 @@
       <c r="S29" t="n">
         <v>0</v>
       </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2395,6 +3107,30 @@
       <c r="S30" t="n">
         <v>0</v>
       </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2464,6 +3200,30 @@
       <c r="S31" t="n">
         <v>0</v>
       </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2531,6 +3291,30 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2594,6 +3378,30 @@
       <c r="S33" t="n">
         <v>0</v>
       </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2667,6 +3475,30 @@
       <c r="S34" t="n">
         <v>0</v>
       </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2736,6 +3568,30 @@
       <c r="S35" t="n">
         <v>0</v>
       </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2805,6 +3661,30 @@
       <c r="S36" t="n">
         <v>0</v>
       </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2874,6 +3754,30 @@
       <c r="S37" t="n">
         <v>0</v>
       </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2943,6 +3847,30 @@
       <c r="S38" t="n">
         <v>0</v>
       </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3008,6 +3936,30 @@
       <c r="S39" t="n">
         <v>0</v>
       </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3075,6 +4027,30 @@
         <v>1</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,6 +4114,30 @@
       <c r="S41" t="n">
         <v>0</v>
       </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3207,6 +4207,30 @@
       <c r="S42" t="n">
         <v>0</v>
       </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3272,6 +4296,30 @@
       <c r="S43" t="n">
         <v>0</v>
       </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3335,6 +4383,30 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,6 +4470,30 @@
       <c r="S45" t="n">
         <v>0</v>
       </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3463,6 +4559,30 @@
       <c r="S46" t="n">
         <v>0</v>
       </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3532,6 +4652,30 @@
       <c r="S47" t="n">
         <v>0</v>
       </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3601,6 +4745,30 @@
       <c r="S48" t="n">
         <v>0</v>
       </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3674,6 +4842,30 @@
       <c r="S49" t="n">
         <v>0</v>
       </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3743,6 +4935,30 @@
       <c r="S50" t="n">
         <v>0</v>
       </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3812,6 +5028,30 @@
       <c r="S51" t="n">
         <v>0</v>
       </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3881,6 +5121,30 @@
       <c r="S52" t="n">
         <v>0</v>
       </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3946,6 +5210,30 @@
       <c r="S53" t="n">
         <v>0</v>
       </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4015,6 +5303,30 @@
       <c r="S54" t="n">
         <v>0</v>
       </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4084,6 +5396,30 @@
       <c r="S55" t="n">
         <v>0</v>
       </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4153,6 +5489,30 @@
       <c r="S56" t="n">
         <v>0</v>
       </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4220,6 +5580,30 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4283,6 +5667,30 @@
       <c r="S58" t="n">
         <v>0</v>
       </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4352,6 +5760,30 @@
       <c r="S59" t="n">
         <v>0</v>
       </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4421,6 +5853,30 @@
       <c r="S60" t="n">
         <v>0</v>
       </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4490,6 +5946,30 @@
       <c r="S61" t="n">
         <v>0</v>
       </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4559,6 +6039,30 @@
       <c r="S62" t="n">
         <v>0</v>
       </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4628,6 +6132,30 @@
       <c r="S63" t="n">
         <v>0</v>
       </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4697,6 +6225,30 @@
       <c r="S64" t="n">
         <v>0</v>
       </c>
+      <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4766,6 +6318,30 @@
       <c r="S65" t="n">
         <v>1</v>
       </c>
+      <c r="T65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4835,6 +6411,30 @@
       <c r="S66" t="n">
         <v>1</v>
       </c>
+      <c r="T66" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4904,6 +6504,30 @@
       <c r="S67" t="n">
         <v>0</v>
       </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4973,6 +6597,30 @@
       <c r="S68" t="n">
         <v>0</v>
       </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5040,6 +6688,30 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5103,6 +6775,30 @@
       <c r="S70" t="n">
         <v>0</v>
       </c>
+      <c r="T70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5172,6 +6868,30 @@
       <c r="S71" t="n">
         <v>0</v>
       </c>
+      <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5241,6 +6961,30 @@
       <c r="S72" t="n">
         <v>0</v>
       </c>
+      <c r="T72" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5310,6 +7054,30 @@
       <c r="S73" t="n">
         <v>0</v>
       </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5379,6 +7147,30 @@
       <c r="S74" t="n">
         <v>0</v>
       </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5448,6 +7240,30 @@
       <c r="S75" t="n">
         <v>0</v>
       </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5517,6 +7333,30 @@
       <c r="S76" t="n">
         <v>0</v>
       </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5586,6 +7426,30 @@
       <c r="S77" t="n">
         <v>0</v>
       </c>
+      <c r="T77" t="n">
+        <v>1</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5655,6 +7519,30 @@
       <c r="S78" t="n">
         <v>0</v>
       </c>
+      <c r="T78" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5722,6 +7610,30 @@
         <v>1</v>
       </c>
       <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5785,6 +7697,30 @@
       <c r="S80" t="n">
         <v>0</v>
       </c>
+      <c r="T80" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5854,6 +7790,30 @@
       <c r="S81" t="n">
         <v>0</v>
       </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5923,6 +7883,30 @@
       <c r="S82" t="n">
         <v>0</v>
       </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5990,6 +7974,30 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6053,6 +8061,30 @@
       <c r="S84" t="n">
         <v>0</v>
       </c>
+      <c r="T84" t="n">
+        <v>1</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6120,6 +8152,30 @@
         <v>1</v>
       </c>
       <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6183,6 +8239,30 @@
       <c r="S86" t="n">
         <v>0</v>
       </c>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6250,6 +8330,30 @@
         <v>0</v>
       </c>
       <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6313,6 +8417,30 @@
       <c r="S88" t="n">
         <v>0</v>
       </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6386,6 +8514,30 @@
       <c r="S89" t="n">
         <v>0</v>
       </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6455,6 +8607,30 @@
       <c r="S90" t="n">
         <v>0</v>
       </c>
+      <c r="T90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6524,6 +8700,30 @@
       <c r="S91" t="n">
         <v>0</v>
       </c>
+      <c r="T91" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6593,6 +8793,30 @@
       <c r="S92" t="n">
         <v>0</v>
       </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6662,6 +8886,30 @@
       <c r="S93" t="n">
         <v>0</v>
       </c>
+      <c r="T93" t="n">
+        <v>1</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6735,6 +8983,30 @@
       <c r="S94" t="n">
         <v>0</v>
       </c>
+      <c r="T94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6808,6 +9080,30 @@
       <c r="S95" t="n">
         <v>0</v>
       </c>
+      <c r="T95" t="n">
+        <v>1</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6877,6 +9173,30 @@
       <c r="S96" t="n">
         <v>0</v>
       </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6946,6 +9266,30 @@
       <c r="S97" t="n">
         <v>0</v>
       </c>
+      <c r="T97" t="n">
+        <v>1</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7015,6 +9359,30 @@
       <c r="S98" t="n">
         <v>0</v>
       </c>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7084,6 +9452,30 @@
       <c r="S99" t="n">
         <v>0</v>
       </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7153,6 +9545,30 @@
       <c r="S100" t="n">
         <v>1</v>
       </c>
+      <c r="T100" t="n">
+        <v>1</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7222,6 +9638,30 @@
       <c r="S101" t="n">
         <v>0</v>
       </c>
+      <c r="T101" t="n">
+        <v>1</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7291,6 +9731,30 @@
       <c r="S102" t="n">
         <v>0</v>
       </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7360,6 +9824,30 @@
       <c r="S103" t="n">
         <v>0</v>
       </c>
+      <c r="T103" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7429,6 +9917,30 @@
       <c r="S104" t="n">
         <v>0</v>
       </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7498,6 +10010,30 @@
       <c r="S105" t="n">
         <v>0</v>
       </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7563,6 +10099,30 @@
       <c r="S106" t="n">
         <v>0</v>
       </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7632,6 +10192,30 @@
       <c r="S107" t="n">
         <v>0</v>
       </c>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7697,6 +10281,30 @@
       <c r="S108" t="n">
         <v>0</v>
       </c>
+      <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1</v>
+      </c>
+      <c r="X108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7766,6 +10374,30 @@
       <c r="S109" t="n">
         <v>1</v>
       </c>
+      <c r="T109" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7835,6 +10467,30 @@
       <c r="S110" t="n">
         <v>1</v>
       </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7898,6 +10554,30 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7961,6 +10641,30 @@
       <c r="S112" t="n">
         <v>0</v>
       </c>
+      <c r="T112" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" t="n">
+        <v>1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8022,6 +10726,30 @@
       <c r="S113" t="n">
         <v>0</v>
       </c>
+      <c r="T113" t="n">
+        <v>1</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8091,6 +10819,30 @@
       <c r="S114" t="n">
         <v>1</v>
       </c>
+      <c r="T114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8160,6 +10912,30 @@
       <c r="S115" t="n">
         <v>1</v>
       </c>
+      <c r="T115" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8225,6 +11001,30 @@
       <c r="S116" t="n">
         <v>0</v>
       </c>
+      <c r="T116" t="n">
+        <v>1</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8294,6 +11094,30 @@
       <c r="S117" t="n">
         <v>0</v>
       </c>
+      <c r="T117" t="n">
+        <v>1</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8361,6 +11185,30 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1</v>
+      </c>
+      <c r="U118" t="n">
+        <v>1</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8424,6 +11272,30 @@
       <c r="S119" t="n">
         <v>0</v>
       </c>
+      <c r="T119" t="n">
+        <v>1</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8493,6 +11365,30 @@
       <c r="S120" t="n">
         <v>1</v>
       </c>
+      <c r="T120" t="n">
+        <v>1</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8562,6 +11458,30 @@
       <c r="S121" t="n">
         <v>1</v>
       </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8631,6 +11551,30 @@
       <c r="S122" t="n">
         <v>0</v>
       </c>
+      <c r="T122" t="n">
+        <v>1</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8696,6 +11640,30 @@
       <c r="S123" t="n">
         <v>0</v>
       </c>
+      <c r="T123" t="n">
+        <v>1</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8765,6 +11733,30 @@
       <c r="S124" t="n">
         <v>0</v>
       </c>
+      <c r="T124" t="n">
+        <v>1</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8834,6 +11826,30 @@
       <c r="S125" t="n">
         <v>0</v>
       </c>
+      <c r="T125" t="n">
+        <v>1</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8903,6 +11919,30 @@
       <c r="S126" t="n">
         <v>0</v>
       </c>
+      <c r="T126" t="n">
+        <v>1</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8968,6 +12008,30 @@
       <c r="S127" t="n">
         <v>0</v>
       </c>
+      <c r="T127" t="n">
+        <v>1</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1</v>
+      </c>
+      <c r="V127" t="n">
+        <v>1</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9037,6 +12101,30 @@
       <c r="S128" t="n">
         <v>0</v>
       </c>
+      <c r="T128" t="n">
+        <v>1</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9106,6 +12194,30 @@
       <c r="S129" t="n">
         <v>0</v>
       </c>
+      <c r="T129" t="n">
+        <v>1</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9171,6 +12283,30 @@
       <c r="S130" t="n">
         <v>0</v>
       </c>
+      <c r="T130" t="n">
+        <v>1</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9240,6 +12376,30 @@
       <c r="S131" t="n">
         <v>0</v>
       </c>
+      <c r="T131" t="n">
+        <v>1</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9309,6 +12469,30 @@
       <c r="S132" t="n">
         <v>0</v>
       </c>
+      <c r="T132" t="n">
+        <v>1</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9378,6 +12562,30 @@
       <c r="S133" t="n">
         <v>0</v>
       </c>
+      <c r="T133" t="n">
+        <v>1</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9451,6 +12659,30 @@
       <c r="S134" t="n">
         <v>0</v>
       </c>
+      <c r="T134" t="n">
+        <v>1</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9524,6 +12756,30 @@
       <c r="S135" t="n">
         <v>0</v>
       </c>
+      <c r="T135" t="n">
+        <v>1</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9593,6 +12849,30 @@
       <c r="S136" t="n">
         <v>0</v>
       </c>
+      <c r="T136" t="n">
+        <v>1</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9662,6 +12942,30 @@
       <c r="S137" t="n">
         <v>0</v>
       </c>
+      <c r="T137" t="n">
+        <v>1</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9731,6 +13035,30 @@
       <c r="S138" t="n">
         <v>0</v>
       </c>
+      <c r="T138" t="n">
+        <v>1</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9800,6 +13128,30 @@
       <c r="S139" t="n">
         <v>0</v>
       </c>
+      <c r="T139" t="n">
+        <v>1</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9865,6 +13217,30 @@
       <c r="S140" t="n">
         <v>0</v>
       </c>
+      <c r="T140" t="n">
+        <v>1</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9930,6 +13306,30 @@
       <c r="S141" t="n">
         <v>0</v>
       </c>
+      <c r="T141" t="n">
+        <v>1</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9997,6 +13397,30 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
+        <v>0</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10060,6 +13484,30 @@
       <c r="S143" t="n">
         <v>0</v>
       </c>
+      <c r="T143" t="n">
+        <v>1</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10129,6 +13577,30 @@
       <c r="S144" t="n">
         <v>0</v>
       </c>
+      <c r="T144" t="n">
+        <v>1</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10198,6 +13670,30 @@
       <c r="S145" t="n">
         <v>0</v>
       </c>
+      <c r="T145" t="n">
+        <v>1</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10267,6 +13763,30 @@
       <c r="S146" t="n">
         <v>0</v>
       </c>
+      <c r="T146" t="n">
+        <v>1</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10338,6 +13858,30 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
+        <v>0</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10401,6 +13945,30 @@
       <c r="S148" t="n">
         <v>0</v>
       </c>
+      <c r="T148" t="n">
+        <v>1</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10470,6 +14038,30 @@
       <c r="S149" t="n">
         <v>0</v>
       </c>
+      <c r="T149" t="n">
+        <v>1</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10539,6 +14131,30 @@
       <c r="S150" t="n">
         <v>1</v>
       </c>
+      <c r="T150" t="n">
+        <v>1</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10608,6 +14224,30 @@
       <c r="S151" t="n">
         <v>0</v>
       </c>
+      <c r="T151" t="n">
+        <v>1</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10677,6 +14317,30 @@
       <c r="S152" t="n">
         <v>1</v>
       </c>
+      <c r="T152" t="n">
+        <v>1</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10746,6 +14410,30 @@
       <c r="S153" t="n">
         <v>1</v>
       </c>
+      <c r="T153" t="n">
+        <v>1</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10815,6 +14503,30 @@
       <c r="S154" t="n">
         <v>0</v>
       </c>
+      <c r="T154" t="n">
+        <v>1</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10884,6 +14596,30 @@
       <c r="S155" t="n">
         <v>0</v>
       </c>
+      <c r="T155" t="n">
+        <v>1</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10953,6 +14689,30 @@
       <c r="S156" t="n">
         <v>0</v>
       </c>
+      <c r="T156" t="n">
+        <v>1</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0</v>
+      </c>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11022,6 +14782,30 @@
       <c r="S157" t="n">
         <v>0</v>
       </c>
+      <c r="T157" t="n">
+        <v>1</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11091,6 +14875,30 @@
       <c r="S158" t="n">
         <v>0</v>
       </c>
+      <c r="T158" t="n">
+        <v>1</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11160,6 +14968,30 @@
       <c r="S159" t="n">
         <v>0</v>
       </c>
+      <c r="T159" t="n">
+        <v>1</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0</v>
+      </c>
+      <c r="V159" t="n">
+        <v>0</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11229,6 +15061,30 @@
       <c r="S160" t="n">
         <v>0</v>
       </c>
+      <c r="T160" t="n">
+        <v>1</v>
+      </c>
+      <c r="U160" t="n">
+        <v>0</v>
+      </c>
+      <c r="V160" t="n">
+        <v>0</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11298,6 +15154,30 @@
       <c r="S161" t="n">
         <v>0</v>
       </c>
+      <c r="T161" t="n">
+        <v>1</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1</v>
+      </c>
+      <c r="V161" t="n">
+        <v>0</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11367,6 +15247,30 @@
       <c r="S162" t="n">
         <v>0</v>
       </c>
+      <c r="T162" t="n">
+        <v>1</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0</v>
+      </c>
+      <c r="X162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11436,6 +15340,30 @@
       <c r="S163" t="n">
         <v>0</v>
       </c>
+      <c r="T163" t="n">
+        <v>0</v>
+      </c>
+      <c r="U163" t="n">
+        <v>0</v>
+      </c>
+      <c r="V163" t="n">
+        <v>0</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0</v>
+      </c>
+      <c r="X163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11505,6 +15433,30 @@
       <c r="S164" t="n">
         <v>1</v>
       </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11574,6 +15526,30 @@
       <c r="S165" t="n">
         <v>0</v>
       </c>
+      <c r="T165" t="n">
+        <v>1</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11643,6 +15619,30 @@
       <c r="S166" t="n">
         <v>0</v>
       </c>
+      <c r="T166" t="n">
+        <v>1</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11708,6 +15708,30 @@
       <c r="S167" t="n">
         <v>0</v>
       </c>
+      <c r="T167" t="n">
+        <v>1</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0</v>
+      </c>
+      <c r="V167" t="n">
+        <v>0</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11777,6 +15801,30 @@
       <c r="S168" t="n">
         <v>0</v>
       </c>
+      <c r="T168" t="n">
+        <v>1</v>
+      </c>
+      <c r="U168" t="n">
+        <v>0</v>
+      </c>
+      <c r="V168" t="n">
+        <v>0</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11846,6 +15894,30 @@
       <c r="S169" t="n">
         <v>0</v>
       </c>
+      <c r="T169" t="n">
+        <v>1</v>
+      </c>
+      <c r="U169" t="n">
+        <v>0</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1</v>
+      </c>
+      <c r="X169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11913,6 +15985,30 @@
         <v>1</v>
       </c>
       <c r="S170" t="n">
+        <v>0</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0</v>
+      </c>
+      <c r="V170" t="n">
+        <v>0</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11976,6 +16072,30 @@
       <c r="S171" t="n">
         <v>0</v>
       </c>
+      <c r="T171" t="n">
+        <v>1</v>
+      </c>
+      <c r="U171" t="n">
+        <v>0</v>
+      </c>
+      <c r="V171" t="n">
+        <v>0</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12045,6 +16165,30 @@
       <c r="S172" t="n">
         <v>0</v>
       </c>
+      <c r="T172" t="n">
+        <v>1</v>
+      </c>
+      <c r="U172" t="n">
+        <v>0</v>
+      </c>
+      <c r="V172" t="n">
+        <v>0</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0</v>
+      </c>
+      <c r="X172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12114,6 +16258,30 @@
       <c r="S173" t="n">
         <v>0</v>
       </c>
+      <c r="T173" t="n">
+        <v>1</v>
+      </c>
+      <c r="U173" t="n">
+        <v>1</v>
+      </c>
+      <c r="V173" t="n">
+        <v>0</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1</v>
+      </c>
+      <c r="X173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12183,6 +16351,30 @@
       <c r="S174" t="n">
         <v>0</v>
       </c>
+      <c r="T174" t="n">
+        <v>1</v>
+      </c>
+      <c r="U174" t="n">
+        <v>0</v>
+      </c>
+      <c r="V174" t="n">
+        <v>0</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0</v>
+      </c>
+      <c r="X174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12252,6 +16444,30 @@
       <c r="S175" t="n">
         <v>0</v>
       </c>
+      <c r="T175" t="n">
+        <v>1</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0</v>
+      </c>
+      <c r="V175" t="n">
+        <v>0</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12321,6 +16537,30 @@
       <c r="S176" t="n">
         <v>0</v>
       </c>
+      <c r="T176" t="n">
+        <v>1</v>
+      </c>
+      <c r="U176" t="n">
+        <v>0</v>
+      </c>
+      <c r="V176" t="n">
+        <v>0</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1</v>
+      </c>
+      <c r="X176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12390,6 +16630,30 @@
       <c r="S177" t="n">
         <v>0</v>
       </c>
+      <c r="T177" t="n">
+        <v>1</v>
+      </c>
+      <c r="U177" t="n">
+        <v>0</v>
+      </c>
+      <c r="V177" t="n">
+        <v>0</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1</v>
+      </c>
+      <c r="X177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12459,6 +16723,30 @@
       <c r="S178" t="n">
         <v>0</v>
       </c>
+      <c r="T178" t="n">
+        <v>1</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0</v>
+      </c>
+      <c r="V178" t="n">
+        <v>0</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12528,6 +16816,30 @@
       <c r="S179" t="n">
         <v>0</v>
       </c>
+      <c r="T179" t="n">
+        <v>1</v>
+      </c>
+      <c r="U179" t="n">
+        <v>0</v>
+      </c>
+      <c r="V179" t="n">
+        <v>0</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12597,6 +16909,30 @@
       <c r="S180" t="n">
         <v>0</v>
       </c>
+      <c r="T180" t="n">
+        <v>1</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0</v>
+      </c>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12666,6 +17002,30 @@
       <c r="S181" t="n">
         <v>0</v>
       </c>
+      <c r="T181" t="n">
+        <v>1</v>
+      </c>
+      <c r="U181" t="n">
+        <v>1</v>
+      </c>
+      <c r="V181" t="n">
+        <v>0</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12739,6 +17099,30 @@
       <c r="S182" t="n">
         <v>0</v>
       </c>
+      <c r="T182" t="n">
+        <v>1</v>
+      </c>
+      <c r="U182" t="n">
+        <v>1</v>
+      </c>
+      <c r="V182" t="n">
+        <v>0</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1</v>
+      </c>
+      <c r="X182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12812,6 +17196,30 @@
       <c r="S183" t="n">
         <v>0</v>
       </c>
+      <c r="T183" t="n">
+        <v>1</v>
+      </c>
+      <c r="U183" t="n">
+        <v>1</v>
+      </c>
+      <c r="V183" t="n">
+        <v>0</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1</v>
+      </c>
+      <c r="X183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12881,6 +17289,30 @@
       <c r="S184" t="n">
         <v>0</v>
       </c>
+      <c r="T184" t="n">
+        <v>1</v>
+      </c>
+      <c r="U184" t="n">
+        <v>1</v>
+      </c>
+      <c r="V184" t="n">
+        <v>0</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0</v>
+      </c>
+      <c r="X184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12946,6 +17378,30 @@
       <c r="S185" t="n">
         <v>0</v>
       </c>
+      <c r="T185" t="n">
+        <v>1</v>
+      </c>
+      <c r="U185" t="n">
+        <v>1</v>
+      </c>
+      <c r="V185" t="n">
+        <v>0</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0</v>
+      </c>
+      <c r="X185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13015,6 +17471,30 @@
       <c r="S186" t="n">
         <v>0</v>
       </c>
+      <c r="T186" t="n">
+        <v>1</v>
+      </c>
+      <c r="U186" t="n">
+        <v>0</v>
+      </c>
+      <c r="V186" t="n">
+        <v>0</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0</v>
+      </c>
+      <c r="X186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13088,6 +17568,30 @@
       <c r="S187" t="n">
         <v>0</v>
       </c>
+      <c r="T187" t="n">
+        <v>1</v>
+      </c>
+      <c r="U187" t="n">
+        <v>0</v>
+      </c>
+      <c r="V187" t="n">
+        <v>0</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13157,6 +17661,30 @@
       <c r="S188" t="n">
         <v>0</v>
       </c>
+      <c r="T188" t="n">
+        <v>1</v>
+      </c>
+      <c r="U188" t="n">
+        <v>0</v>
+      </c>
+      <c r="V188" t="n">
+        <v>0</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0</v>
+      </c>
+      <c r="X188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13226,6 +17754,30 @@
       <c r="S189" t="n">
         <v>0</v>
       </c>
+      <c r="T189" t="n">
+        <v>1</v>
+      </c>
+      <c r="U189" t="n">
+        <v>0</v>
+      </c>
+      <c r="V189" t="n">
+        <v>0</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0</v>
+      </c>
+      <c r="X189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13295,6 +17847,30 @@
       <c r="S190" t="n">
         <v>0</v>
       </c>
+      <c r="T190" t="n">
+        <v>1</v>
+      </c>
+      <c r="U190" t="n">
+        <v>0</v>
+      </c>
+      <c r="V190" t="n">
+        <v>0</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0</v>
+      </c>
+      <c r="X190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13368,6 +17944,30 @@
       <c r="S191" t="n">
         <v>0</v>
       </c>
+      <c r="T191" t="n">
+        <v>1</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1</v>
+      </c>
+      <c r="V191" t="n">
+        <v>0</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1</v>
+      </c>
+      <c r="X191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13437,6 +18037,30 @@
       <c r="S192" t="n">
         <v>0</v>
       </c>
+      <c r="T192" t="n">
+        <v>1</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>0</v>
+      </c>
+      <c r="W192" t="n">
+        <v>0</v>
+      </c>
+      <c r="X192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13504,6 +18128,30 @@
         <v>1</v>
       </c>
       <c r="S193" t="n">
+        <v>0</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1</v>
+      </c>
+      <c r="V193" t="n">
+        <v>0</v>
+      </c>
+      <c r="W193" t="n">
+        <v>0</v>
+      </c>
+      <c r="X193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13567,6 +18215,30 @@
       <c r="S194" t="n">
         <v>0</v>
       </c>
+      <c r="T194" t="n">
+        <v>1</v>
+      </c>
+      <c r="U194" t="n">
+        <v>0</v>
+      </c>
+      <c r="V194" t="n">
+        <v>0</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1</v>
+      </c>
+      <c r="X194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13628,6 +18300,30 @@
       <c r="S195" t="n">
         <v>0</v>
       </c>
+      <c r="T195" t="n">
+        <v>1</v>
+      </c>
+      <c r="U195" t="n">
+        <v>0</v>
+      </c>
+      <c r="V195" t="n">
+        <v>0</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1</v>
+      </c>
+      <c r="X195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13697,6 +18393,30 @@
       <c r="S196" t="n">
         <v>1</v>
       </c>
+      <c r="T196" t="n">
+        <v>1</v>
+      </c>
+      <c r="U196" t="n">
+        <v>0</v>
+      </c>
+      <c r="V196" t="n">
+        <v>0</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1</v>
+      </c>
+      <c r="X196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13766,6 +18486,30 @@
       <c r="S197" t="n">
         <v>0</v>
       </c>
+      <c r="T197" t="n">
+        <v>1</v>
+      </c>
+      <c r="U197" t="n">
+        <v>0</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13833,6 +18577,30 @@
         <v>1</v>
       </c>
       <c r="S198" t="n">
+        <v>0</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1</v>
+      </c>
+      <c r="U198" t="n">
+        <v>0</v>
+      </c>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0</v>
+      </c>
+      <c r="X198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA198" t="n">
         <v>0</v>
       </c>
     </row>
